--- a/Datas/Modify/B3Unit2B.xlsx
+++ b/Datas/Modify/B3Unit2B.xlsx
@@ -715,410 +715,410 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
         <v>60</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
         <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
         <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" t="s">
         <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
         <v>72</v>
-      </c>
-      <c r="C33" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
         <v>74</v>
-      </c>
-      <c r="C34" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
         <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
         <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
         <v>82</v>
-      </c>
-      <c r="C38" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
         <v>84</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" t="s">
         <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
         <v>88</v>
-      </c>
-      <c r="C41" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
         <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
         <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
         <v>96</v>
-      </c>
-      <c r="C45" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
         <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
         <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
         <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
         <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
         <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
         <v>108</v>
-      </c>
-      <c r="C51" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/Modify/B3Unit2B.xlsx
+++ b/Datas/Modify/B3Unit2B.xlsx
@@ -43,310 +43,310 @@
     <t>正确率</t>
   </si>
   <si>
-    <t xml:space="preserve">transcontinental </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 横贯大陆的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">briefcase </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. 公文包；公事包 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lofty </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 1 高傲的；傲慢的；2 （思想、目标等）崇高的，高尚的；3 （山、建筑物等）巍峨的，高耸的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">paperback </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. 平装书；简装书 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">altitude </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. 海拔（高度） </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vertical </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 垂直的；直立的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vertically </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad. 垂直地；直立地 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tilt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">v. 1（使）倾斜着移动；2（使）倾斜；（使）倾侧 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">turbulence </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. （由风造成的空气或水的）湍流，不稳定的强气流 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaporate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vi.（逐渐）消失，消散，衰减 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">v. （使）蒸发 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">plight </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. 困境；苦境 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">regarding </t>
-  </si>
-  <si>
-    <t xml:space="preserve">prep. 有关；关于 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">necessitate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. 使成为必要；需要 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">abort </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt.（因困难或危险）使（活动）终止 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sober </t>
-  </si>
-  <si>
-    <t xml:space="preserve">v.（使）变得持重（谨慎，严肃） </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sobering </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 使人警醒的；使人清醒的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">scramble </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. 仓促完成（困难的事) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vi.（迅速而吃力地）爬，攀登 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">instantaneous </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 即刻的；即时的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">instantaneously </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad. 即刻地；即时地 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hysterical </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 歇斯底里的；狂热的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">stun </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. 使大吃一惊；使震惊 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vulnerable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a.（身体上或感情上）脆弱的，易受…伤害的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">grim </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 1 （神色或口气）严肃的；2 令人担忧的；令人不快的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">proximity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. （距离或时间的）接近，临近，邻近 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">overhear </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. (overheard, overheard) 无意中听到；偶然听到 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">underlie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. (underlay, underlain) 1 位于…之下；置于…之下；2 作为…的原因；构成…的基础 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">evoke </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. 引起，唤起（强烈的感情或回忆） </t>
-  </si>
-  <si>
-    <t xml:space="preserve">imperative </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 紧急的；极重要的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">cabin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. 1（飞机上的）客舱，驾驶舱；2（尤指建于林中或山上的）小木屋 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">brace </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. 1 抵住；顶住；使稳住；2（使）做好准备 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabulous </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 极好的；绝妙的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">invaluable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 极有价值的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">intent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a. 专注的；专心致志的 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">relish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. 享受；满足；喜欢 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hover </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vi. 1 逗留在近旁；2 盘旋；悬停 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">strap </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. 用带子束住；捆绑 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. 带子 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wreckage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. （飞机、船或建筑物被毁后的）残骸 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">glide </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vi. 滑行；滑动 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">destiny </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. 命运；天命；定数 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">dread </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. 恐惧；害怕 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">vt. 畏惧；惧怕；担心 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">descent </t>
-  </si>
-  <si>
-    <t xml:space="preserve">n. 下降；降落 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">settle back </t>
-  </si>
-  <si>
-    <t xml:space="preserve">舒服地躺（坐）下 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">on board </t>
-  </si>
-  <si>
-    <t xml:space="preserve">在船上；在飞机上；在飞船上 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">in the event of sth. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">如果某事发生；万一… ；假若… </t>
-  </si>
-  <si>
-    <t xml:space="preserve">in / into position </t>
-  </si>
-  <si>
-    <t xml:space="preserve">在适当的位置 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">be stunned by </t>
-  </si>
-  <si>
-    <t xml:space="preserve">被…震惊 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">for sure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(infml.) 肯定地；确切地 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">no earthly reason / use, etc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">毫无缘由 / 用处等 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">hint of </t>
-  </si>
-  <si>
-    <t xml:space="preserve">少许；微量；（细微的）迹象 </t>
+    <t>transcontinental</t>
+  </si>
+  <si>
+    <t>a. 横贯大陆的</t>
+  </si>
+  <si>
+    <t>briefcase</t>
+  </si>
+  <si>
+    <t>n. 公文包；公事包</t>
+  </si>
+  <si>
+    <t>lofty</t>
+  </si>
+  <si>
+    <t>a. 1 高傲的；傲慢的；2 （思想、目标等）崇高的，高尚的；3 （山、建筑物等）巍峨的，高耸的</t>
+  </si>
+  <si>
+    <t>paperback</t>
+  </si>
+  <si>
+    <t>n. 平装书；简装书</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>n. 海拔（高度）</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>a. 垂直的；直立的</t>
+  </si>
+  <si>
+    <t>vertically</t>
+  </si>
+  <si>
+    <t>ad. 垂直地；直立地</t>
+  </si>
+  <si>
+    <t>tilt</t>
+  </si>
+  <si>
+    <t>v. 1（使）倾斜着移动；2（使）倾斜；（使）倾侧</t>
+  </si>
+  <si>
+    <t>turbulence</t>
+  </si>
+  <si>
+    <t>n. （由风造成的空气或水的）湍流，不稳定的强气流</t>
+  </si>
+  <si>
+    <t>evaporate</t>
+  </si>
+  <si>
+    <t>vi.（逐渐）消失，消散，衰减</t>
+  </si>
+  <si>
+    <t>v. （使）蒸发</t>
+  </si>
+  <si>
+    <t>plight</t>
+  </si>
+  <si>
+    <t>n. 困境；苦境</t>
+  </si>
+  <si>
+    <t>regarding</t>
+  </si>
+  <si>
+    <t>prep. 有关；关于</t>
+  </si>
+  <si>
+    <t>necessitate</t>
+  </si>
+  <si>
+    <t>vt. 使成为必要；需要</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t>vt.（因困难或危险）使（活动）终止</t>
+  </si>
+  <si>
+    <t>sober</t>
+  </si>
+  <si>
+    <t>v.（使）变得持重（谨慎，严肃）</t>
+  </si>
+  <si>
+    <t>sobering</t>
+  </si>
+  <si>
+    <t>a. 使人警醒的；使人清醒的</t>
+  </si>
+  <si>
+    <t>scramble</t>
+  </si>
+  <si>
+    <t>vt. 仓促完成（困难的事)</t>
+  </si>
+  <si>
+    <t>vi.（迅速而吃力地）爬，攀登</t>
+  </si>
+  <si>
+    <t>instantaneous</t>
+  </si>
+  <si>
+    <t>a. 即刻的；即时的</t>
+  </si>
+  <si>
+    <t>instantaneously</t>
+  </si>
+  <si>
+    <t>ad. 即刻地；即时地</t>
+  </si>
+  <si>
+    <t>hysterical</t>
+  </si>
+  <si>
+    <t>a. 歇斯底里的；狂热的</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>vt. 使大吃一惊；使震惊</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>a.（身体上或感情上）脆弱的，易受…伤害的</t>
+  </si>
+  <si>
+    <t>grim</t>
+  </si>
+  <si>
+    <t>a. 1 （神色或口气）严肃的；2 令人担忧的；令人不快的</t>
+  </si>
+  <si>
+    <t>proximity</t>
+  </si>
+  <si>
+    <t>n. （距离或时间的）接近，临近，邻近</t>
+  </si>
+  <si>
+    <t>overhear</t>
+  </si>
+  <si>
+    <t>vt. (overheard, overheard) 无意中听到；偶然听到</t>
+  </si>
+  <si>
+    <t>underlie</t>
+  </si>
+  <si>
+    <t>vt. (underlay, underlain) 1 位于…之下；置于…之下；2 作为…的原因；构成…的基础</t>
+  </si>
+  <si>
+    <t>evoke</t>
+  </si>
+  <si>
+    <t>vt. 引起，唤起（强烈的感情或回忆）</t>
+  </si>
+  <si>
+    <t>imperative</t>
+  </si>
+  <si>
+    <t>a. 紧急的；极重要的</t>
+  </si>
+  <si>
+    <t>cabin</t>
+  </si>
+  <si>
+    <t>n. 1（飞机上的）客舱，驾驶舱；2（尤指建于林中或山上的）小木屋</t>
+  </si>
+  <si>
+    <t>brace</t>
+  </si>
+  <si>
+    <t>vt. 1 抵住；顶住；使稳住；2（使）做好准备</t>
+  </si>
+  <si>
+    <t>fabulous</t>
+  </si>
+  <si>
+    <t>a. 极好的；绝妙的</t>
+  </si>
+  <si>
+    <t>invaluable</t>
+  </si>
+  <si>
+    <t>a. 极有价值的</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>a. 专注的；专心致志的</t>
+  </si>
+  <si>
+    <t>relish</t>
+  </si>
+  <si>
+    <t>vt. 享受；满足；喜欢</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>vi. 1 逗留在近旁；2 盘旋；悬停</t>
+  </si>
+  <si>
+    <t>strap</t>
+  </si>
+  <si>
+    <t>vt. 用带子束住；捆绑</t>
+  </si>
+  <si>
+    <t>n. 带子</t>
+  </si>
+  <si>
+    <t>wreckage</t>
+  </si>
+  <si>
+    <t>n. （飞机、船或建筑物被毁后的）残骸</t>
+  </si>
+  <si>
+    <t>glide</t>
+  </si>
+  <si>
+    <t>vi. 滑行；滑动</t>
+  </si>
+  <si>
+    <t>destiny</t>
+  </si>
+  <si>
+    <t>n. 命运；天命；定数</t>
+  </si>
+  <si>
+    <t>dread</t>
+  </si>
+  <si>
+    <t>n. 恐惧；害怕</t>
+  </si>
+  <si>
+    <t>vt. 畏惧；惧怕；担心</t>
+  </si>
+  <si>
+    <t>descent</t>
+  </si>
+  <si>
+    <t>n. 下降；降落</t>
+  </si>
+  <si>
+    <t>settle back</t>
+  </si>
+  <si>
+    <t>舒服地躺（坐）下</t>
+  </si>
+  <si>
+    <t>on board</t>
+  </si>
+  <si>
+    <t>在船上；在飞机上；在飞船上</t>
+  </si>
+  <si>
+    <t>in the event of sth.</t>
+  </si>
+  <si>
+    <t>如果某事发生；万一… ；假若…</t>
+  </si>
+  <si>
+    <t>in / into position</t>
+  </si>
+  <si>
+    <t>在适当的位置</t>
+  </si>
+  <si>
+    <t>be stunned by</t>
+  </si>
+  <si>
+    <t>被…震惊</t>
+  </si>
+  <si>
+    <t>for sure</t>
+  </si>
+  <si>
+    <t>(infml.) 肯定地；确切地</t>
+  </si>
+  <si>
+    <t>no earthly reason / use, etc.</t>
+  </si>
+  <si>
+    <t>毫无缘由 / 用处等</t>
+  </si>
+  <si>
+    <t>hint of</t>
+  </si>
+  <si>
+    <t>少许；微量；（细微的）迹象</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -794,330 +794,334 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="C40" t="s">
         <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C54" t="s">
         <v>110</v>
       </c>
     </row>
